--- a/form/static/血液血清手開帳單v1.0.xlsx
+++ b/form/static/血液血清手開帳單v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ntumclab\venv\userform\form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CB7D5D-F4F8-4273-955F-D98B1F21790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6B930C-019B-4654-B085-D9A62D1C7BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="540" windowWidth="19575" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="1" r:id="rId1"/>
@@ -214,9 +214,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[&gt;99999999]0000\-000\-000;000\-000\-000"/>
+    <numFmt numFmtId="176" formatCode="[&gt;99999999]0000\-000\-000;000\-000\-000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -296,6 +296,12 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -412,6 +418,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,11 +457,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -823,7 +833,7 @@
   <dimension ref="A1:IW36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -841,16 +851,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
@@ -860,10 +870,10 @@
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -873,10 +883,10 @@
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="12"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -885,12 +895,12 @@
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="12"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -899,12 +909,12 @@
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -913,8 +923,8 @@
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -942,59 +952,59 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="14">
         <v>0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <f>110*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="28">
         <f>450*E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1008,11 +1018,11 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="10">
         <f>SUM(F11:G12)</f>
         <v>0</v>
@@ -1046,206 +1056,206 @@
       <c r="A17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="5"/>
     </row>
   </sheetData>
